--- a/src/main/resources/Analytics_Ng_Excel.xlsx
+++ b/src/main/resources/Analytics_Ng_Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hp\untitled\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041CF1E2-978F-4D32-A717-5FE4B70CA548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E557CD-1E74-45DA-B238-45AA85EC7C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5436" yWindow="3456" windowWidth="17280" windowHeight="8880" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_Forest_Weather_Details" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Ownership_details_by_Forest_ID" sheetId="4" r:id="rId6"/>
     <sheet name="All_Forest_Details" sheetId="18" r:id="rId7"/>
     <sheet name="Specific_Forest_Details" sheetId="19" r:id="rId8"/>
-    <sheet name="Total_Clusters_by List_of_Guard" sheetId="20" r:id="rId9"/>
+    <sheet name="Total_Clusters_by_List_of_Guard" sheetId="20" r:id="rId9"/>
     <sheet name="Ownership_Details_Cluster" sheetId="5" r:id="rId10"/>
     <sheet name="Unassigned_Cluster" sheetId="6" r:id="rId11"/>
     <sheet name="Best_AQI_Details" sheetId="7" r:id="rId12"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="250">
   <si>
     <t>1</t>
   </si>
@@ -419,13 +419,388 @@
   </si>
   <si>
     <t>Id with 72 special characters</t>
+  </si>
+  <si>
+    <t>iframe_height</t>
+  </si>
+  <si>
+    <t>iframe_width</t>
+  </si>
+  <si>
+    <t>zoom_start</t>
+  </si>
+  <si>
+    <t>font_weight_head</t>
+  </si>
+  <si>
+    <t>font_size_head</t>
+  </si>
+  <si>
+    <t>font_weight_body</t>
+  </si>
+  <si>
+    <t>font_size_body</t>
+  </si>
+  <si>
+    <t>full_screen</t>
+  </si>
+  <si>
+    <t>Expected Status Code</t>
+  </si>
+  <si>
+    <t>Negative Scenario</t>
+  </si>
+  <si>
+    <t>"Yes"</t>
+  </si>
+  <si>
+    <t>iframe_height is empty</t>
+  </si>
+  <si>
+    <t>iframe_height is negative</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>iframe_height is null</t>
+  </si>
+  <si>
+    <t>iframe_width is empty</t>
+  </si>
+  <si>
+    <t>"abc"</t>
+  </si>
+  <si>
+    <t>zoom_start is invalid string</t>
+  </si>
+  <si>
+    <t>font_weight_head invalid format</t>
+  </si>
+  <si>
+    <t>font_size_head is non-numeric</t>
+  </si>
+  <si>
+    <t>font_weight_body is negative</t>
+  </si>
+  <si>
+    <t>font_size_body invalid string</t>
+  </si>
+  <si>
+    <t>"123"</t>
+  </si>
+  <si>
+    <t>full_screen should be string "Yes" or "No"</t>
+  </si>
+  <si>
+    <t>full_screen is empty</t>
+  </si>
+  <si>
+    <t>page_number negative</t>
+  </si>
+  <si>
+    <t>"one"</t>
+  </si>
+  <si>
+    <t>page_number is non-numeric</t>
+  </si>
+  <si>
+    <t>iframe_height field is missing</t>
+  </si>
+  <si>
+    <t>full_screen invalid value</t>
+  </si>
+  <si>
+    <t>$#%&amp;</t>
+  </si>
+  <si>
+    <t>iframe_height is spec char</t>
+  </si>
+  <si>
+    <t>%#&amp;*</t>
+  </si>
+  <si>
+    <t>iframe_width is emp</t>
+  </si>
+  <si>
+    <t>iframe_width is spec char</t>
+  </si>
+  <si>
+    <t>abvds</t>
+  </si>
+  <si>
+    <t>iframe_width string</t>
+  </si>
+  <si>
+    <t>dfghj</t>
+  </si>
+  <si>
+    <t>iframe_height is string</t>
+  </si>
+  <si>
+    <t>zoom_start is empty</t>
+  </si>
+  <si>
+    <t>zoom_start is neagtive</t>
+  </si>
+  <si>
+    <t>#$%&amp;</t>
+  </si>
+  <si>
+    <t>zoom_start is spec char</t>
+  </si>
+  <si>
+    <t>font_weight_head neagtive</t>
+  </si>
+  <si>
+    <t>font_weight_head spec char</t>
+  </si>
+  <si>
+    <t>font_weight_head string</t>
+  </si>
+  <si>
+    <t>font_size_head is non-numeric neagtive</t>
+  </si>
+  <si>
+    <t>font_size_head is spec char</t>
+  </si>
+  <si>
+    <t>font_size_head is string</t>
+  </si>
+  <si>
+    <t>font_weight_head empty</t>
+  </si>
+  <si>
+    <t>iframe_width empty</t>
+  </si>
+  <si>
+    <t>font_size_head is empty</t>
+  </si>
+  <si>
+    <t>font_weight_body spec char</t>
+  </si>
+  <si>
+    <t>font_weight_body string</t>
+  </si>
+  <si>
+    <t>font_weight_body is empty</t>
+  </si>
+  <si>
+    <t>font_weight_body is _" "</t>
+  </si>
+  <si>
+    <t>"-17"</t>
+  </si>
+  <si>
+    <t>font_size_body spec char</t>
+  </si>
+  <si>
+    <t>font_size_body  string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">font_size_body empty </t>
+  </si>
+  <si>
+    <t>font_size_body empty "_"</t>
+  </si>
+  <si>
+    <t>"YES"</t>
+  </si>
+  <si>
+    <t>forestId</t>
+  </si>
+  <si>
+    <t>UNI_COED02</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>userId is empty</t>
+  </si>
+  <si>
+    <t>userId is null</t>
+  </si>
+  <si>
+    <t>userId invalid format</t>
+  </si>
+  <si>
+    <t>forestId empty</t>
+  </si>
+  <si>
+    <t>forestId null</t>
+  </si>
+  <si>
+    <t>forestId invalid</t>
+  </si>
+  <si>
+    <t>iframe_height negative</t>
+  </si>
+  <si>
+    <t>iframe_height empty</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>zoom_start empty</t>
+  </si>
+  <si>
+    <t>zoom_start non-numeric</t>
+  </si>
+  <si>
+    <t>font_size_head empty</t>
+  </si>
+  <si>
+    <t>full_screen empty</t>
+  </si>
+  <si>
+    <t>full_screen invalid</t>
+  </si>
+  <si>
+    <t>page_number empty</t>
+  </si>
+  <si>
+    <t>page_number not number</t>
+  </si>
+  <si>
+    <t>font_weight_negative</t>
+  </si>
+  <si>
+    <t>font_weight_spec char</t>
+  </si>
+  <si>
+    <t>font_weight_string</t>
+  </si>
+  <si>
+    <t>font_weight_ empty</t>
+  </si>
+  <si>
+    <t>font_weight_head empty with "_"</t>
+  </si>
+  <si>
+    <t>font_size_head neg</t>
+  </si>
+  <si>
+    <t>font_size_spec char</t>
+  </si>
+  <si>
+    <t>font_size_string</t>
+  </si>
+  <si>
+    <t>zoom_start neg</t>
+  </si>
+  <si>
+    <t>zoom_start spec cahr</t>
+  </si>
+  <si>
+    <t>zoom_start emty</t>
+  </si>
+  <si>
+    <t>iframe_width neg</t>
+  </si>
+  <si>
+    <t>iframe_width spec char</t>
+  </si>
+  <si>
+    <t>iframe_widthempty</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>iframe_height spec Char</t>
+  </si>
+  <si>
+    <t>iframe_height string</t>
+  </si>
+  <si>
+    <t>UNI_COED00002</t>
+  </si>
+  <si>
+    <t>uni_coed02</t>
+  </si>
+  <si>
+    <t>forestId small letters</t>
+  </si>
+  <si>
+    <t>font_weight_body empty</t>
+  </si>
+  <si>
+    <t>font_weight_body String</t>
+  </si>
+  <si>
+    <t>font_weight_body Spec cahr</t>
+  </si>
+  <si>
+    <t>font_weight_body neg</t>
+  </si>
+  <si>
+    <t>font_weight_body with "_"</t>
+  </si>
+  <si>
+    <t>1  7</t>
+  </si>
+  <si>
+    <t>font_size_body empty</t>
+  </si>
+  <si>
+    <t>font_size_body neg</t>
+  </si>
+  <si>
+    <t>font_size_body spec</t>
+  </si>
+  <si>
+    <t>font_size_body string</t>
+  </si>
+  <si>
+    <t>font_size_body space</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>full_screen Caps</t>
+  </si>
+  <si>
+    <t>#$%</t>
+  </si>
+  <si>
+    <t>page_number Spec Char</t>
+  </si>
+  <si>
+    <t>"Noo"</t>
+  </si>
+  <si>
+    <t>0067e96f-2f47-4d8f-864a-0906d54173ad</t>
+  </si>
+  <si>
+    <t>0067e47-4d8f-864a-09fdf</t>
+  </si>
+  <si>
+    <t>userId is spe char</t>
+  </si>
+  <si>
+    <t>userId is more than 36</t>
+  </si>
+  <si>
+    <t>["0067e96f-2f47-4d8f-8dsdsdsd64a-0906d54173ad","e637f040-5b32-460f-86dsdsdsdc5-1f8a594d7adc"]</t>
+  </si>
+  <si>
+    <t>["0067f-2f47-4d8f-864a-6d54173ad","e6370-5b32-460 c597adc"]</t>
+  </si>
+  <si>
+    <t>["0067   e96f-2f    47-4d8f-864a-0   906d54173ad","e637f0   40-5b32-4   60f-86c5-1   f8a594   d7adc"]</t>
+  </si>
+  <si>
+    <t>[" '"  , "  "]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,6 +827,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -475,7 +858,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -493,6 +876,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -922,7 +1314,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1540,7 +1932,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="A1:XFD1048576"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2104,8 +2496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38DF1EFC-80BA-4DA2-966F-930288462813}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2735,8 +3127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B1042A-BE8A-4BB7-B92C-A87011D14BED}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3430,7 +3822,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3567,28 +3959,3887 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7777F078-9ACF-4193-9AFF-8B9F88035FDE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" customWidth="1"/>
+    <col min="10" max="10" width="18.77734375" customWidth="1"/>
+    <col min="11" max="11" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="13">
+        <v>460</v>
+      </c>
+      <c r="C2" s="13">
+        <v>7</v>
+      </c>
+      <c r="D2" s="13">
+        <v>550</v>
+      </c>
+      <c r="E2" s="13">
+        <v>25</v>
+      </c>
+      <c r="F2" s="13">
+        <v>550</v>
+      </c>
+      <c r="G2" s="13">
+        <v>17</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" s="13">
+        <v>1</v>
+      </c>
+      <c r="J2" s="13">
+        <v>400</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
+        <v>-100</v>
+      </c>
+      <c r="B3" s="13">
+        <v>460</v>
+      </c>
+      <c r="C3" s="13">
+        <v>7</v>
+      </c>
+      <c r="D3" s="13">
+        <v>550</v>
+      </c>
+      <c r="E3" s="13">
+        <v>25</v>
+      </c>
+      <c r="F3" s="13">
+        <v>550</v>
+      </c>
+      <c r="G3" s="13">
+        <v>17</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3" s="13">
+        <v>1</v>
+      </c>
+      <c r="J3" s="13">
+        <v>400</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="13">
+        <v>460</v>
+      </c>
+      <c r="C4" s="13">
+        <v>7</v>
+      </c>
+      <c r="D4" s="13">
+        <v>550</v>
+      </c>
+      <c r="E4" s="13">
+        <v>25</v>
+      </c>
+      <c r="F4" s="13">
+        <v>550</v>
+      </c>
+      <c r="G4" s="13">
+        <v>17</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I4" s="13">
+        <v>1</v>
+      </c>
+      <c r="J4" s="13">
+        <v>400</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="13">
+        <v>460</v>
+      </c>
+      <c r="C5" s="13">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13">
+        <v>550</v>
+      </c>
+      <c r="E5" s="13">
+        <v>25</v>
+      </c>
+      <c r="F5" s="13">
+        <v>550</v>
+      </c>
+      <c r="G5" s="13">
+        <v>17</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I5" s="13">
+        <v>1</v>
+      </c>
+      <c r="J5" s="13">
+        <v>400</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="13">
+        <v>460</v>
+      </c>
+      <c r="C6" s="13">
+        <v>7</v>
+      </c>
+      <c r="D6" s="13">
+        <v>550</v>
+      </c>
+      <c r="E6" s="13">
+        <v>25</v>
+      </c>
+      <c r="F6" s="13">
+        <v>550</v>
+      </c>
+      <c r="G6" s="13">
+        <v>17</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6" s="13">
+        <v>1</v>
+      </c>
+      <c r="J6" s="13">
+        <v>400</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
+        <v>290</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13">
+        <v>7</v>
+      </c>
+      <c r="D7" s="13">
+        <v>550</v>
+      </c>
+      <c r="E7" s="13">
+        <v>25</v>
+      </c>
+      <c r="F7" s="13">
+        <v>550</v>
+      </c>
+      <c r="G7" s="13">
+        <v>17</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I7" s="13">
+        <v>1</v>
+      </c>
+      <c r="J7" s="13">
+        <v>400</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
+        <v>290</v>
+      </c>
+      <c r="B8" s="13">
+        <v>-1</v>
+      </c>
+      <c r="C8" s="13">
+        <v>7</v>
+      </c>
+      <c r="D8" s="13">
+        <v>550</v>
+      </c>
+      <c r="E8" s="13">
+        <v>25</v>
+      </c>
+      <c r="F8" s="13">
+        <v>550</v>
+      </c>
+      <c r="G8" s="13">
+        <v>17</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I8" s="13">
+        <v>1</v>
+      </c>
+      <c r="J8" s="13">
+        <v>400</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
+        <v>290</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="13">
+        <v>7</v>
+      </c>
+      <c r="D9" s="13">
+        <v>550</v>
+      </c>
+      <c r="E9" s="13">
+        <v>25</v>
+      </c>
+      <c r="F9" s="13">
+        <v>550</v>
+      </c>
+      <c r="G9" s="13">
+        <v>17</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I9" s="13">
+        <v>1</v>
+      </c>
+      <c r="J9" s="13">
+        <v>400</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
+        <v>290</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="13">
+        <v>7</v>
+      </c>
+      <c r="D10" s="13">
+        <v>550</v>
+      </c>
+      <c r="E10" s="13">
+        <v>25</v>
+      </c>
+      <c r="F10" s="13">
+        <v>550</v>
+      </c>
+      <c r="G10" s="13">
+        <v>17</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I10" s="13">
+        <v>1</v>
+      </c>
+      <c r="J10" s="13">
+        <v>400</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
+        <v>290</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13">
+        <v>7</v>
+      </c>
+      <c r="D11" s="13">
+        <v>550</v>
+      </c>
+      <c r="E11" s="13">
+        <v>25</v>
+      </c>
+      <c r="F11" s="13">
+        <v>550</v>
+      </c>
+      <c r="G11" s="13">
+        <v>17</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I11" s="13">
+        <v>1</v>
+      </c>
+      <c r="J11" s="13">
+        <v>400</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
+        <v>290</v>
+      </c>
+      <c r="B12" s="13">
+        <v>460</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="13">
+        <v>550</v>
+      </c>
+      <c r="E12" s="13">
+        <v>25</v>
+      </c>
+      <c r="F12" s="13">
+        <v>550</v>
+      </c>
+      <c r="G12" s="13">
+        <v>17</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I12" s="13">
+        <v>1</v>
+      </c>
+      <c r="J12" s="13">
+        <v>400</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>290</v>
+      </c>
+      <c r="B13" s="13">
+        <v>460</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="13">
+        <v>550</v>
+      </c>
+      <c r="E13" s="13">
+        <v>25</v>
+      </c>
+      <c r="F13" s="13">
+        <v>550</v>
+      </c>
+      <c r="G13" s="13">
+        <v>17</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I13" s="13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="13">
+        <v>400</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
+        <v>290</v>
+      </c>
+      <c r="B14" s="13">
+        <v>460</v>
+      </c>
+      <c r="C14" s="13">
+        <v>-1</v>
+      </c>
+      <c r="D14" s="13">
+        <v>550</v>
+      </c>
+      <c r="E14" s="13">
+        <v>25</v>
+      </c>
+      <c r="F14" s="13">
+        <v>550</v>
+      </c>
+      <c r="G14" s="13">
+        <v>17</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I14" s="13">
+        <v>1</v>
+      </c>
+      <c r="J14" s="13">
+        <v>400</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
+        <v>290</v>
+      </c>
+      <c r="B15" s="13">
+        <v>460</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="13">
+        <v>550</v>
+      </c>
+      <c r="E15" s="13">
+        <v>25</v>
+      </c>
+      <c r="F15" s="13">
+        <v>550</v>
+      </c>
+      <c r="G15" s="13">
+        <v>17</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" s="13">
+        <v>1</v>
+      </c>
+      <c r="J15" s="13">
+        <v>400</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
+        <v>290</v>
+      </c>
+      <c r="B16" s="13">
+        <v>460</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13">
+        <v>550</v>
+      </c>
+      <c r="E16" s="13">
+        <v>25</v>
+      </c>
+      <c r="F16" s="13">
+        <v>550</v>
+      </c>
+      <c r="G16" s="13">
+        <v>17</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I16" s="13">
+        <v>1</v>
+      </c>
+      <c r="J16" s="13">
+        <v>400</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
+        <v>290</v>
+      </c>
+      <c r="B17" s="13">
+        <v>460</v>
+      </c>
+      <c r="C17" s="13">
+        <v>7</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="13">
+        <v>25</v>
+      </c>
+      <c r="F17" s="13">
+        <v>550</v>
+      </c>
+      <c r="G17" s="13">
+        <v>17</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I17" s="13">
+        <v>1</v>
+      </c>
+      <c r="J17" s="13">
+        <v>400</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
+        <v>290</v>
+      </c>
+      <c r="B18" s="13">
+        <v>460</v>
+      </c>
+      <c r="C18" s="13">
+        <v>7</v>
+      </c>
+      <c r="D18" s="13">
+        <v>-550</v>
+      </c>
+      <c r="E18" s="13">
+        <v>25</v>
+      </c>
+      <c r="F18" s="13">
+        <v>550</v>
+      </c>
+      <c r="G18" s="13">
+        <v>17</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I18" s="13">
+        <v>1</v>
+      </c>
+      <c r="J18" s="13">
+        <v>400</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="13">
+        <v>290</v>
+      </c>
+      <c r="B19" s="13">
+        <v>460</v>
+      </c>
+      <c r="C19" s="13">
+        <v>7</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19" s="13">
+        <v>25</v>
+      </c>
+      <c r="F19" s="13">
+        <v>550</v>
+      </c>
+      <c r="G19" s="13">
+        <v>17</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I19" s="13">
+        <v>1</v>
+      </c>
+      <c r="J19" s="13">
+        <v>400</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="13">
+        <v>290</v>
+      </c>
+      <c r="B20" s="13">
+        <v>460</v>
+      </c>
+      <c r="C20" s="13">
+        <v>7</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="13">
+        <v>25</v>
+      </c>
+      <c r="F20" s="13">
+        <v>550</v>
+      </c>
+      <c r="G20" s="13">
+        <v>17</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I20" s="13">
+        <v>1</v>
+      </c>
+      <c r="J20" s="13">
+        <v>400</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="13">
+        <v>290</v>
+      </c>
+      <c r="B21" s="13">
+        <v>460</v>
+      </c>
+      <c r="C21" s="13">
+        <v>7</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13">
+        <v>25</v>
+      </c>
+      <c r="F21" s="13">
+        <v>550</v>
+      </c>
+      <c r="G21" s="13">
+        <v>17</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I21" s="13">
+        <v>1</v>
+      </c>
+      <c r="J21" s="13">
+        <v>400</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="13">
+        <v>290</v>
+      </c>
+      <c r="B22" s="13">
+        <v>460</v>
+      </c>
+      <c r="C22" s="13">
+        <v>7</v>
+      </c>
+      <c r="D22" s="13">
+        <v>550</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="13">
+        <v>550</v>
+      </c>
+      <c r="G22" s="13">
+        <v>17</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I22" s="13">
+        <v>1</v>
+      </c>
+      <c r="J22" s="13">
+        <v>400</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
+        <v>290</v>
+      </c>
+      <c r="B23" s="13">
+        <v>460</v>
+      </c>
+      <c r="C23" s="13">
+        <v>7</v>
+      </c>
+      <c r="D23" s="13">
+        <v>550</v>
+      </c>
+      <c r="E23" s="13">
+        <v>-25</v>
+      </c>
+      <c r="F23" s="13">
+        <v>550</v>
+      </c>
+      <c r="G23" s="13">
+        <v>17</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I23" s="13">
+        <v>1</v>
+      </c>
+      <c r="J23" s="13">
+        <v>400</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="13">
+        <v>290</v>
+      </c>
+      <c r="B24" s="13">
+        <v>460</v>
+      </c>
+      <c r="C24" s="13">
+        <v>7</v>
+      </c>
+      <c r="D24" s="13">
+        <v>550</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="13">
+        <v>550</v>
+      </c>
+      <c r="G24" s="13">
+        <v>17</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I24" s="13">
+        <v>1</v>
+      </c>
+      <c r="J24" s="13">
+        <v>400</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="13">
+        <v>290</v>
+      </c>
+      <c r="B25" s="13">
+        <v>460</v>
+      </c>
+      <c r="C25" s="13">
+        <v>7</v>
+      </c>
+      <c r="D25" s="13">
+        <v>550</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="13">
+        <v>550</v>
+      </c>
+      <c r="G25" s="13">
+        <v>17</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I25" s="13">
+        <v>1</v>
+      </c>
+      <c r="J25" s="13">
+        <v>400</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="13">
+        <v>290</v>
+      </c>
+      <c r="B26" s="13">
+        <v>460</v>
+      </c>
+      <c r="C26" s="13">
+        <v>7</v>
+      </c>
+      <c r="D26" s="13">
+        <v>550</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13">
+        <v>550</v>
+      </c>
+      <c r="G26" s="13">
+        <v>17</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I26" s="13">
+        <v>1</v>
+      </c>
+      <c r="J26" s="13">
+        <v>400</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="13">
+        <v>290</v>
+      </c>
+      <c r="B27" s="13">
+        <v>460</v>
+      </c>
+      <c r="C27" s="13">
+        <v>7</v>
+      </c>
+      <c r="D27" s="13">
+        <v>550</v>
+      </c>
+      <c r="E27" s="13">
+        <v>25</v>
+      </c>
+      <c r="F27" s="13">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="13">
+        <v>17</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I27" s="13">
+        <v>1</v>
+      </c>
+      <c r="J27" s="13">
+        <v>400</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="13">
+        <v>290</v>
+      </c>
+      <c r="B28" s="13">
+        <v>460</v>
+      </c>
+      <c r="C28" s="13">
+        <v>7</v>
+      </c>
+      <c r="D28" s="13">
+        <v>550</v>
+      </c>
+      <c r="E28" s="13">
+        <v>25</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="G28" s="13">
+        <v>17</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I28" s="13">
+        <v>1</v>
+      </c>
+      <c r="J28" s="13">
+        <v>400</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="13">
+        <v>290</v>
+      </c>
+      <c r="B29" s="13">
+        <v>460</v>
+      </c>
+      <c r="C29" s="13">
+        <v>7</v>
+      </c>
+      <c r="D29" s="13">
+        <v>550</v>
+      </c>
+      <c r="E29" s="13">
+        <v>25</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" s="13">
+        <v>17</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I29" s="13">
+        <v>1</v>
+      </c>
+      <c r="J29" s="13">
+        <v>400</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="13">
+        <v>290</v>
+      </c>
+      <c r="B30" s="13">
+        <v>460</v>
+      </c>
+      <c r="C30" s="13">
+        <v>7</v>
+      </c>
+      <c r="D30" s="13">
+        <v>550</v>
+      </c>
+      <c r="E30" s="13">
+        <v>25</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13">
+        <v>17</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I30" s="13">
+        <v>1</v>
+      </c>
+      <c r="J30" s="13">
+        <v>400</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="13">
+        <v>290</v>
+      </c>
+      <c r="B31" s="13">
+        <v>460</v>
+      </c>
+      <c r="C31" s="13">
+        <v>7</v>
+      </c>
+      <c r="D31" s="13">
+        <v>550</v>
+      </c>
+      <c r="E31" s="13">
+        <v>25</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="13">
+        <v>17</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I31" s="13">
+        <v>1</v>
+      </c>
+      <c r="J31" s="13">
+        <v>400</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="13">
+        <v>290</v>
+      </c>
+      <c r="B32" s="13">
+        <v>460</v>
+      </c>
+      <c r="C32" s="13">
+        <v>7</v>
+      </c>
+      <c r="D32" s="13">
+        <v>550</v>
+      </c>
+      <c r="E32" s="13">
+        <v>25</v>
+      </c>
+      <c r="F32" s="13">
+        <v>550</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I32" s="13">
+        <v>1</v>
+      </c>
+      <c r="J32" s="13">
+        <v>400</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="13">
+        <v>290</v>
+      </c>
+      <c r="B33" s="13">
+        <v>460</v>
+      </c>
+      <c r="C33" s="13">
+        <v>7</v>
+      </c>
+      <c r="D33" s="13">
+        <v>550</v>
+      </c>
+      <c r="E33" s="13">
+        <v>25</v>
+      </c>
+      <c r="F33" s="13">
+        <v>550</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I33" s="13">
+        <v>1</v>
+      </c>
+      <c r="J33" s="13">
+        <v>400</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="13">
+        <v>290</v>
+      </c>
+      <c r="B34" s="13">
+        <v>460</v>
+      </c>
+      <c r="C34" s="13">
+        <v>7</v>
+      </c>
+      <c r="D34" s="13">
+        <v>550</v>
+      </c>
+      <c r="E34" s="13">
+        <v>25</v>
+      </c>
+      <c r="F34" s="13">
+        <v>550</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I34" s="13">
+        <v>1</v>
+      </c>
+      <c r="J34" s="13">
+        <v>400</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="13">
+        <v>290</v>
+      </c>
+      <c r="B35" s="13">
+        <v>460</v>
+      </c>
+      <c r="C35" s="13">
+        <v>7</v>
+      </c>
+      <c r="D35" s="13">
+        <v>550</v>
+      </c>
+      <c r="E35" s="13">
+        <v>25</v>
+      </c>
+      <c r="F35" s="13">
+        <v>550</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I35" s="13">
+        <v>1</v>
+      </c>
+      <c r="J35" s="13">
+        <v>400</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="13">
+        <v>290</v>
+      </c>
+      <c r="B36" s="13">
+        <v>460</v>
+      </c>
+      <c r="C36" s="13">
+        <v>7</v>
+      </c>
+      <c r="D36" s="13">
+        <v>550</v>
+      </c>
+      <c r="E36" s="13">
+        <v>25</v>
+      </c>
+      <c r="F36" s="13">
+        <v>550</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I36" s="13">
+        <v>1</v>
+      </c>
+      <c r="J36" s="13">
+        <v>400</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="13">
+        <v>290</v>
+      </c>
+      <c r="B37" s="13">
+        <v>460</v>
+      </c>
+      <c r="C37" s="13">
+        <v>7</v>
+      </c>
+      <c r="D37" s="13">
+        <v>550</v>
+      </c>
+      <c r="E37" s="13">
+        <v>25</v>
+      </c>
+      <c r="F37" s="13">
+        <v>550</v>
+      </c>
+      <c r="G37" s="13">
+        <v>17</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="I37" s="13">
+        <v>1</v>
+      </c>
+      <c r="J37" s="13">
+        <v>400</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="13">
+        <v>290</v>
+      </c>
+      <c r="B38" s="13">
+        <v>460</v>
+      </c>
+      <c r="C38" s="13">
+        <v>7</v>
+      </c>
+      <c r="D38" s="13">
+        <v>550</v>
+      </c>
+      <c r="E38" s="13">
+        <v>25</v>
+      </c>
+      <c r="F38" s="13">
+        <v>550</v>
+      </c>
+      <c r="G38" s="13">
+        <v>17</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38" s="13">
+        <v>1</v>
+      </c>
+      <c r="J38" s="13">
+        <v>400</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="13">
+        <v>290</v>
+      </c>
+      <c r="B39" s="13">
+        <v>460</v>
+      </c>
+      <c r="C39" s="13">
+        <v>7</v>
+      </c>
+      <c r="D39" s="13">
+        <v>550</v>
+      </c>
+      <c r="E39" s="13">
+        <v>25</v>
+      </c>
+      <c r="F39" s="13">
+        <v>550</v>
+      </c>
+      <c r="G39" s="13">
+        <v>17</v>
+      </c>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13">
+        <v>1</v>
+      </c>
+      <c r="J39" s="13">
+        <v>400</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="13">
+        <v>290</v>
+      </c>
+      <c r="B40" s="13">
+        <v>460</v>
+      </c>
+      <c r="C40" s="13">
+        <v>7</v>
+      </c>
+      <c r="D40" s="13">
+        <v>550</v>
+      </c>
+      <c r="E40" s="13">
+        <v>25</v>
+      </c>
+      <c r="F40" s="13">
+        <v>550</v>
+      </c>
+      <c r="G40" s="13">
+        <v>17</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I40" s="13">
+        <v>-1</v>
+      </c>
+      <c r="J40" s="13">
+        <v>400</v>
+      </c>
+      <c r="K40" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="13">
+        <v>290</v>
+      </c>
+      <c r="B41" s="13">
+        <v>460</v>
+      </c>
+      <c r="C41" s="13">
+        <v>7</v>
+      </c>
+      <c r="D41" s="13">
+        <v>550</v>
+      </c>
+      <c r="E41" s="13">
+        <v>25</v>
+      </c>
+      <c r="F41" s="13">
+        <v>550</v>
+      </c>
+      <c r="G41" s="13">
+        <v>17</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J41" s="13">
+        <v>400</v>
+      </c>
+      <c r="K41" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="13">
+        <v>290</v>
+      </c>
+      <c r="B42" s="13">
+        <v>460</v>
+      </c>
+      <c r="C42" s="13">
+        <v>7</v>
+      </c>
+      <c r="D42" s="13">
+        <v>550</v>
+      </c>
+      <c r="E42" s="13">
+        <v>25</v>
+      </c>
+      <c r="F42" s="13">
+        <v>550</v>
+      </c>
+      <c r="G42" s="13">
+        <v>17</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="13">
+        <v>400</v>
+      </c>
+      <c r="K42" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="13">
+        <v>290</v>
+      </c>
+      <c r="B43" s="13">
+        <v>460</v>
+      </c>
+      <c r="C43" s="13">
+        <v>7</v>
+      </c>
+      <c r="D43" s="13">
+        <v>550</v>
+      </c>
+      <c r="E43" s="13">
+        <v>25</v>
+      </c>
+      <c r="F43" s="13">
+        <v>550</v>
+      </c>
+      <c r="G43" s="13">
+        <v>17</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13">
+        <v>400</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="13">
+        <v>290</v>
+      </c>
+      <c r="B44" s="13">
+        <v>460</v>
+      </c>
+      <c r="C44" s="13">
+        <v>7</v>
+      </c>
+      <c r="D44" s="13">
+        <v>550</v>
+      </c>
+      <c r="E44" s="13">
+        <v>25</v>
+      </c>
+      <c r="F44" s="13">
+        <v>550</v>
+      </c>
+      <c r="G44" s="13">
+        <v>17</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="J44" s="13">
+        <v>400</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="14"/>
+      <c r="B45" s="13">
+        <v>460</v>
+      </c>
+      <c r="C45" s="13">
+        <v>7</v>
+      </c>
+      <c r="D45" s="13">
+        <v>550</v>
+      </c>
+      <c r="E45" s="13">
+        <v>25</v>
+      </c>
+      <c r="F45" s="13">
+        <v>550</v>
+      </c>
+      <c r="G45" s="13">
+        <v>17</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I45" s="13">
+        <v>1</v>
+      </c>
+      <c r="J45" s="13">
+        <v>400</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="13">
+        <v>290</v>
+      </c>
+      <c r="B46" s="13">
+        <v>460</v>
+      </c>
+      <c r="C46" s="13">
+        <v>7</v>
+      </c>
+      <c r="D46" s="13">
+        <v>550</v>
+      </c>
+      <c r="E46" s="13">
+        <v>25</v>
+      </c>
+      <c r="F46" s="13">
+        <v>550</v>
+      </c>
+      <c r="G46" s="13">
+        <v>17</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="I46" s="13">
+        <v>1</v>
+      </c>
+      <c r="J46" s="13">
+        <v>400</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B9B41B-B24C-4A58-A34B-974A59BB36E8}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="52.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="29.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="13">
+        <v>280</v>
+      </c>
+      <c r="D2" s="13">
+        <v>380</v>
+      </c>
+      <c r="E2" s="13">
+        <v>17</v>
+      </c>
+      <c r="F2" s="13">
+        <v>550</v>
+      </c>
+      <c r="G2" s="13">
+        <v>25</v>
+      </c>
+      <c r="H2" s="13">
+        <v>550</v>
+      </c>
+      <c r="I2" s="13">
+        <v>17</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K2" s="13">
+        <v>1</v>
+      </c>
+      <c r="L2" s="13">
+        <v>400</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="13">
+        <v>280</v>
+      </c>
+      <c r="D3" s="13">
+        <v>380</v>
+      </c>
+      <c r="E3" s="13">
+        <v>17</v>
+      </c>
+      <c r="F3" s="13">
+        <v>550</v>
+      </c>
+      <c r="G3" s="13">
+        <v>25</v>
+      </c>
+      <c r="H3" s="13">
+        <v>550</v>
+      </c>
+      <c r="I3" s="13">
+        <v>17</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K3" s="13">
+        <v>1</v>
+      </c>
+      <c r="L3" s="13">
+        <v>400</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="13">
+        <v>280</v>
+      </c>
+      <c r="D4" s="13">
+        <v>380</v>
+      </c>
+      <c r="E4" s="13">
+        <v>17</v>
+      </c>
+      <c r="F4" s="13">
+        <v>550</v>
+      </c>
+      <c r="G4" s="13">
+        <v>25</v>
+      </c>
+      <c r="H4" s="13">
+        <v>550</v>
+      </c>
+      <c r="I4" s="13">
+        <v>17</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K4" s="13">
+        <v>1</v>
+      </c>
+      <c r="L4" s="13">
+        <v>400</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="13">
+        <v>280</v>
+      </c>
+      <c r="D5" s="13">
+        <v>380</v>
+      </c>
+      <c r="E5" s="13">
+        <v>17</v>
+      </c>
+      <c r="F5" s="13">
+        <v>550</v>
+      </c>
+      <c r="G5" s="13">
+        <v>25</v>
+      </c>
+      <c r="H5" s="13">
+        <v>550</v>
+      </c>
+      <c r="I5" s="13">
+        <v>17</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K5" s="13">
+        <v>1</v>
+      </c>
+      <c r="L5" s="13">
+        <v>400</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="13">
+        <v>280</v>
+      </c>
+      <c r="D6" s="13">
+        <v>380</v>
+      </c>
+      <c r="E6" s="13">
+        <v>17</v>
+      </c>
+      <c r="F6" s="13">
+        <v>550</v>
+      </c>
+      <c r="G6" s="13">
+        <v>25</v>
+      </c>
+      <c r="H6" s="13">
+        <v>550</v>
+      </c>
+      <c r="I6" s="13">
+        <v>17</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K6" s="13">
+        <v>1</v>
+      </c>
+      <c r="L6" s="13">
+        <v>400</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13">
+        <v>280</v>
+      </c>
+      <c r="D7" s="13">
+        <v>380</v>
+      </c>
+      <c r="E7" s="13">
+        <v>17</v>
+      </c>
+      <c r="F7" s="13">
+        <v>550</v>
+      </c>
+      <c r="G7" s="13">
+        <v>25</v>
+      </c>
+      <c r="H7" s="13">
+        <v>550</v>
+      </c>
+      <c r="I7" s="13">
+        <v>17</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K7" s="13">
+        <v>1</v>
+      </c>
+      <c r="L7" s="13">
+        <v>400</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13">
+        <v>280</v>
+      </c>
+      <c r="D8" s="13">
+        <v>380</v>
+      </c>
+      <c r="E8" s="13">
+        <v>17</v>
+      </c>
+      <c r="F8" s="13">
+        <v>550</v>
+      </c>
+      <c r="G8" s="13">
+        <v>25</v>
+      </c>
+      <c r="H8" s="13">
+        <v>550</v>
+      </c>
+      <c r="I8" s="13">
+        <v>17</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K8" s="13">
+        <v>1</v>
+      </c>
+      <c r="L8" s="13">
+        <v>400</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="13">
+        <v>280</v>
+      </c>
+      <c r="D9" s="13">
+        <v>380</v>
+      </c>
+      <c r="E9" s="13">
+        <v>17</v>
+      </c>
+      <c r="F9" s="13">
+        <v>550</v>
+      </c>
+      <c r="G9" s="13">
+        <v>25</v>
+      </c>
+      <c r="H9" s="13">
+        <v>550</v>
+      </c>
+      <c r="I9" s="13">
+        <v>17</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K9" s="13">
+        <v>1</v>
+      </c>
+      <c r="L9" s="13">
+        <v>400</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="13">
+        <v>280</v>
+      </c>
+      <c r="D10" s="13">
+        <v>380</v>
+      </c>
+      <c r="E10" s="13">
+        <v>17</v>
+      </c>
+      <c r="F10" s="13">
+        <v>550</v>
+      </c>
+      <c r="G10" s="13">
+        <v>25</v>
+      </c>
+      <c r="H10" s="13">
+        <v>550</v>
+      </c>
+      <c r="I10" s="13">
+        <v>17</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K10" s="13">
+        <v>1</v>
+      </c>
+      <c r="L10" s="13">
+        <v>400</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="13">
+        <v>-10</v>
+      </c>
+      <c r="D11" s="13">
+        <v>380</v>
+      </c>
+      <c r="E11" s="13">
+        <v>17</v>
+      </c>
+      <c r="F11" s="13">
+        <v>550</v>
+      </c>
+      <c r="G11" s="13">
+        <v>25</v>
+      </c>
+      <c r="H11" s="13">
+        <v>550</v>
+      </c>
+      <c r="I11" s="13">
+        <v>17</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K11" s="13">
+        <v>1</v>
+      </c>
+      <c r="L11" s="13">
+        <v>400</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="13">
+        <v>380</v>
+      </c>
+      <c r="E12" s="13">
+        <v>17</v>
+      </c>
+      <c r="F12" s="13">
+        <v>550</v>
+      </c>
+      <c r="G12" s="13">
+        <v>25</v>
+      </c>
+      <c r="H12" s="13">
+        <v>550</v>
+      </c>
+      <c r="I12" s="13">
+        <v>17</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K12" s="13">
+        <v>1</v>
+      </c>
+      <c r="L12" s="13">
+        <v>400</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="13">
+        <v>380</v>
+      </c>
+      <c r="E13" s="13">
+        <v>17</v>
+      </c>
+      <c r="F13" s="13">
+        <v>550</v>
+      </c>
+      <c r="G13" s="13">
+        <v>25</v>
+      </c>
+      <c r="H13" s="13">
+        <v>550</v>
+      </c>
+      <c r="I13" s="13">
+        <v>17</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K13" s="13">
+        <v>1</v>
+      </c>
+      <c r="L13" s="13">
+        <v>400</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D14" s="13">
+        <v>380</v>
+      </c>
+      <c r="E14" s="13">
+        <v>17</v>
+      </c>
+      <c r="F14" s="13">
+        <v>550</v>
+      </c>
+      <c r="G14" s="13">
+        <v>25</v>
+      </c>
+      <c r="H14" s="13">
+        <v>550</v>
+      </c>
+      <c r="I14" s="13">
+        <v>17</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K14" s="13">
+        <v>1</v>
+      </c>
+      <c r="L14" s="13">
+        <v>400</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13">
+        <v>380</v>
+      </c>
+      <c r="E15" s="13">
+        <v>17</v>
+      </c>
+      <c r="F15" s="13">
+        <v>550</v>
+      </c>
+      <c r="G15" s="13">
+        <v>25</v>
+      </c>
+      <c r="H15" s="13">
+        <v>550</v>
+      </c>
+      <c r="I15" s="13">
+        <v>17</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K15" s="13">
+        <v>1</v>
+      </c>
+      <c r="L15" s="13">
+        <v>400</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="13">
+        <v>280</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="13">
+        <v>17</v>
+      </c>
+      <c r="F16" s="13">
+        <v>550</v>
+      </c>
+      <c r="G16" s="13">
+        <v>25</v>
+      </c>
+      <c r="H16" s="13">
+        <v>550</v>
+      </c>
+      <c r="I16" s="13">
+        <v>17</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K16" s="13">
+        <v>1</v>
+      </c>
+      <c r="L16" s="13">
+        <v>400</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="13">
+        <v>280</v>
+      </c>
+      <c r="D17" s="13">
+        <v>-380</v>
+      </c>
+      <c r="E17" s="13">
+        <v>17</v>
+      </c>
+      <c r="F17" s="13">
+        <v>550</v>
+      </c>
+      <c r="G17" s="13">
+        <v>25</v>
+      </c>
+      <c r="H17" s="13">
+        <v>550</v>
+      </c>
+      <c r="I17" s="13">
+        <v>17</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K17" s="13">
+        <v>1</v>
+      </c>
+      <c r="L17" s="13">
+        <v>400</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="13">
+        <v>280</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" s="13">
+        <v>17</v>
+      </c>
+      <c r="F18" s="13">
+        <v>550</v>
+      </c>
+      <c r="G18" s="13">
+        <v>25</v>
+      </c>
+      <c r="H18" s="13">
+        <v>550</v>
+      </c>
+      <c r="I18" s="13">
+        <v>17</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K18" s="13">
+        <v>1</v>
+      </c>
+      <c r="L18" s="13">
+        <v>400</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="13">
+        <v>280</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13">
+        <v>17</v>
+      </c>
+      <c r="F19" s="13">
+        <v>550</v>
+      </c>
+      <c r="G19" s="13">
+        <v>25</v>
+      </c>
+      <c r="H19" s="13">
+        <v>550</v>
+      </c>
+      <c r="I19" s="13">
+        <v>17</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K19" s="13">
+        <v>1</v>
+      </c>
+      <c r="L19" s="13">
+        <v>400</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" s="13">
+        <v>280</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E20" s="13">
+        <v>17</v>
+      </c>
+      <c r="F20" s="13">
+        <v>550</v>
+      </c>
+      <c r="G20" s="13">
+        <v>25</v>
+      </c>
+      <c r="H20" s="13">
+        <v>550</v>
+      </c>
+      <c r="I20" s="13">
+        <v>17</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K20" s="13">
+        <v>1</v>
+      </c>
+      <c r="L20" s="13">
+        <v>400</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" s="13">
+        <v>280</v>
+      </c>
+      <c r="D21" s="13">
+        <v>380</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="13">
+        <v>550</v>
+      </c>
+      <c r="G21" s="13">
+        <v>25</v>
+      </c>
+      <c r="H21" s="13">
+        <v>550</v>
+      </c>
+      <c r="I21" s="13">
+        <v>17</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K21" s="13">
+        <v>1</v>
+      </c>
+      <c r="L21" s="13">
+        <v>400</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="13">
+        <v>280</v>
+      </c>
+      <c r="D22" s="13">
+        <v>380</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F22" s="13">
+        <v>550</v>
+      </c>
+      <c r="G22" s="13">
+        <v>25</v>
+      </c>
+      <c r="H22" s="13">
+        <v>550</v>
+      </c>
+      <c r="I22" s="13">
+        <v>17</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K22" s="13">
+        <v>1</v>
+      </c>
+      <c r="L22" s="13">
+        <v>400</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="13">
+        <v>280</v>
+      </c>
+      <c r="D23" s="13">
+        <v>380</v>
+      </c>
+      <c r="E23" s="13">
+        <v>-17</v>
+      </c>
+      <c r="F23" s="13">
+        <v>550</v>
+      </c>
+      <c r="G23" s="13">
+        <v>25</v>
+      </c>
+      <c r="H23" s="13">
+        <v>550</v>
+      </c>
+      <c r="I23" s="13">
+        <v>17</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K23" s="13">
+        <v>1</v>
+      </c>
+      <c r="L23" s="13">
+        <v>400</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="13">
+        <v>280</v>
+      </c>
+      <c r="D24" s="13">
+        <v>380</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="13">
+        <v>550</v>
+      </c>
+      <c r="G24" s="13">
+        <v>25</v>
+      </c>
+      <c r="H24" s="13">
+        <v>550</v>
+      </c>
+      <c r="I24" s="13">
+        <v>17</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K24" s="13">
+        <v>1</v>
+      </c>
+      <c r="L24" s="13">
+        <v>400</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" s="13">
+        <v>280</v>
+      </c>
+      <c r="D25" s="13">
+        <v>380</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13">
+        <v>550</v>
+      </c>
+      <c r="G25" s="13">
+        <v>25</v>
+      </c>
+      <c r="H25" s="13">
+        <v>550</v>
+      </c>
+      <c r="I25" s="13">
+        <v>17</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K25" s="13">
+        <v>1</v>
+      </c>
+      <c r="L25" s="13">
+        <v>400</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" s="13">
+        <v>280</v>
+      </c>
+      <c r="D26" s="13">
+        <v>380</v>
+      </c>
+      <c r="E26" s="13">
+        <v>17</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="13">
+        <v>25</v>
+      </c>
+      <c r="H26" s="13">
+        <v>550</v>
+      </c>
+      <c r="I26" s="13">
+        <v>17</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K26" s="13">
+        <v>1</v>
+      </c>
+      <c r="L26" s="13">
+        <v>400</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" s="13">
+        <v>280</v>
+      </c>
+      <c r="D27" s="13">
+        <v>380</v>
+      </c>
+      <c r="E27" s="13">
+        <v>17</v>
+      </c>
+      <c r="F27" s="13">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="13">
+        <v>25</v>
+      </c>
+      <c r="H27" s="13">
+        <v>550</v>
+      </c>
+      <c r="I27" s="13">
+        <v>17</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K27" s="13">
+        <v>1</v>
+      </c>
+      <c r="L27" s="13">
+        <v>400</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C28" s="13">
+        <v>280</v>
+      </c>
+      <c r="D28" s="13">
+        <v>380</v>
+      </c>
+      <c r="E28" s="13">
+        <v>17</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="G28" s="13">
+        <v>25</v>
+      </c>
+      <c r="H28" s="13">
+        <v>550</v>
+      </c>
+      <c r="I28" s="13">
+        <v>17</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K28" s="13">
+        <v>1</v>
+      </c>
+      <c r="L28" s="13">
+        <v>400</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" s="13">
+        <v>280</v>
+      </c>
+      <c r="D29" s="13">
+        <v>380</v>
+      </c>
+      <c r="E29" s="13">
+        <v>17</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" s="13">
+        <v>25</v>
+      </c>
+      <c r="H29" s="13">
+        <v>550</v>
+      </c>
+      <c r="I29" s="13">
+        <v>17</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K29" s="13">
+        <v>1</v>
+      </c>
+      <c r="L29" s="13">
+        <v>400</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C30" s="13">
+        <v>280</v>
+      </c>
+      <c r="D30" s="13">
+        <v>380</v>
+      </c>
+      <c r="E30" s="13">
+        <v>17</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13">
+        <v>25</v>
+      </c>
+      <c r="H30" s="13">
+        <v>550</v>
+      </c>
+      <c r="I30" s="13">
+        <v>17</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K30" s="13">
+        <v>1</v>
+      </c>
+      <c r="L30" s="13">
+        <v>400</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="13">
+        <v>280</v>
+      </c>
+      <c r="D31" s="13">
+        <v>380</v>
+      </c>
+      <c r="E31" s="13">
+        <v>17</v>
+      </c>
+      <c r="F31" s="13">
+        <v>550</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="13">
+        <v>550</v>
+      </c>
+      <c r="I31" s="13">
+        <v>17</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K31" s="13">
+        <v>1</v>
+      </c>
+      <c r="L31" s="13">
+        <v>400</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="P31" s="13"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C32" s="13">
+        <v>280</v>
+      </c>
+      <c r="D32" s="13">
+        <v>380</v>
+      </c>
+      <c r="E32" s="13">
+        <v>17</v>
+      </c>
+      <c r="F32" s="13">
+        <v>550</v>
+      </c>
+      <c r="G32" s="13">
+        <v>-25</v>
+      </c>
+      <c r="H32" s="13">
+        <v>550</v>
+      </c>
+      <c r="I32" s="13">
+        <v>17</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K32" s="13">
+        <v>1</v>
+      </c>
+      <c r="L32" s="13">
+        <v>400</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="P32" s="13"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" s="13">
+        <v>280</v>
+      </c>
+      <c r="D33" s="13">
+        <v>380</v>
+      </c>
+      <c r="E33" s="13">
+        <v>17</v>
+      </c>
+      <c r="F33" s="13">
+        <v>550</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="H33" s="13">
+        <v>550</v>
+      </c>
+      <c r="I33" s="13">
+        <v>17</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K33" s="13">
+        <v>1</v>
+      </c>
+      <c r="L33" s="13">
+        <v>400</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="P33" s="13"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" s="13">
+        <v>280</v>
+      </c>
+      <c r="D34" s="13">
+        <v>380</v>
+      </c>
+      <c r="E34" s="13">
+        <v>17</v>
+      </c>
+      <c r="F34" s="13">
+        <v>550</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H34" s="13">
+        <v>550</v>
+      </c>
+      <c r="I34" s="13">
+        <v>17</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K34" s="13">
+        <v>1</v>
+      </c>
+      <c r="L34" s="13">
+        <v>400</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="P34" s="13"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C35" s="13">
+        <v>280</v>
+      </c>
+      <c r="D35" s="13">
+        <v>380</v>
+      </c>
+      <c r="E35" s="13">
+        <v>17</v>
+      </c>
+      <c r="F35" s="13">
+        <v>550</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13">
+        <v>550</v>
+      </c>
+      <c r="I35" s="13">
+        <v>17</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K35" s="13">
+        <v>1</v>
+      </c>
+      <c r="L35" s="13">
+        <v>400</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="P35" s="13"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C36" s="13">
+        <v>280</v>
+      </c>
+      <c r="D36" s="13">
+        <v>380</v>
+      </c>
+      <c r="E36" s="13">
+        <v>17</v>
+      </c>
+      <c r="F36" s="13">
+        <v>550</v>
+      </c>
+      <c r="G36" s="13">
+        <v>25</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" s="13">
+        <v>17</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K36" s="13">
+        <v>1</v>
+      </c>
+      <c r="L36" s="13">
+        <v>400</v>
+      </c>
+      <c r="M36" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="P36" s="13"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37" s="13">
+        <v>280</v>
+      </c>
+      <c r="D37" s="13">
+        <v>380</v>
+      </c>
+      <c r="E37" s="13">
+        <v>17</v>
+      </c>
+      <c r="F37" s="13">
+        <v>550</v>
+      </c>
+      <c r="G37" s="13">
+        <v>25</v>
+      </c>
+      <c r="H37" s="13">
+        <v>-550</v>
+      </c>
+      <c r="I37" s="13">
+        <v>17</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K37" s="13">
+        <v>1</v>
+      </c>
+      <c r="L37" s="13">
+        <v>400</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C38" s="13">
+        <v>280</v>
+      </c>
+      <c r="D38" s="13">
+        <v>380</v>
+      </c>
+      <c r="E38" s="13">
+        <v>17</v>
+      </c>
+      <c r="F38" s="13">
+        <v>550</v>
+      </c>
+      <c r="G38" s="13">
+        <v>25</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="I38" s="13">
+        <v>17</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K38" s="13">
+        <v>1</v>
+      </c>
+      <c r="L38" s="13">
+        <v>400</v>
+      </c>
+      <c r="M38" s="13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C39" s="13">
+        <v>280</v>
+      </c>
+      <c r="D39" s="13">
+        <v>380</v>
+      </c>
+      <c r="E39" s="13">
+        <v>17</v>
+      </c>
+      <c r="F39" s="13">
+        <v>550</v>
+      </c>
+      <c r="G39" s="13">
+        <v>25</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="I39" s="13">
+        <v>17</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K39" s="13">
+        <v>1</v>
+      </c>
+      <c r="L39" s="13">
+        <v>400</v>
+      </c>
+      <c r="M39" s="13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C40" s="13">
+        <v>280</v>
+      </c>
+      <c r="D40" s="13">
+        <v>380</v>
+      </c>
+      <c r="E40" s="13">
+        <v>17</v>
+      </c>
+      <c r="F40" s="13">
+        <v>550</v>
+      </c>
+      <c r="G40" s="13">
+        <v>25</v>
+      </c>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13">
+        <v>17</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K40" s="13">
+        <v>1</v>
+      </c>
+      <c r="L40" s="13">
+        <v>400</v>
+      </c>
+      <c r="M40" s="13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C41" s="13">
+        <v>280</v>
+      </c>
+      <c r="D41" s="13">
+        <v>380</v>
+      </c>
+      <c r="E41" s="13">
+        <v>17</v>
+      </c>
+      <c r="F41" s="13">
+        <v>550</v>
+      </c>
+      <c r="G41" s="13">
+        <v>25</v>
+      </c>
+      <c r="H41" s="13">
+        <v>550</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K41" s="13">
+        <v>1</v>
+      </c>
+      <c r="L41" s="13">
+        <v>400</v>
+      </c>
+      <c r="M41" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" s="13">
+        <v>280</v>
+      </c>
+      <c r="D42" s="13">
+        <v>380</v>
+      </c>
+      <c r="E42" s="13">
+        <v>17</v>
+      </c>
+      <c r="F42" s="13">
+        <v>550</v>
+      </c>
+      <c r="G42" s="13">
+        <v>25</v>
+      </c>
+      <c r="H42" s="13">
+        <v>550</v>
+      </c>
+      <c r="I42" s="13">
+        <v>-17</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K42" s="13">
+        <v>1</v>
+      </c>
+      <c r="L42" s="13">
+        <v>400</v>
+      </c>
+      <c r="M42" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C43" s="13">
+        <v>280</v>
+      </c>
+      <c r="D43" s="13">
+        <v>380</v>
+      </c>
+      <c r="E43" s="13">
+        <v>17</v>
+      </c>
+      <c r="F43" s="13">
+        <v>550</v>
+      </c>
+      <c r="G43" s="13">
+        <v>25</v>
+      </c>
+      <c r="H43" s="13">
+        <v>550</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K43" s="13">
+        <v>1</v>
+      </c>
+      <c r="L43" s="13">
+        <v>400</v>
+      </c>
+      <c r="M43" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C44" s="13">
+        <v>280</v>
+      </c>
+      <c r="D44" s="13">
+        <v>380</v>
+      </c>
+      <c r="E44" s="13">
+        <v>17</v>
+      </c>
+      <c r="F44" s="13">
+        <v>550</v>
+      </c>
+      <c r="G44" s="13">
+        <v>25</v>
+      </c>
+      <c r="H44" s="13">
+        <v>550</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K44" s="13">
+        <v>1</v>
+      </c>
+      <c r="L44" s="13">
+        <v>400</v>
+      </c>
+      <c r="M44" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C45" s="13">
+        <v>280</v>
+      </c>
+      <c r="D45" s="13">
+        <v>380</v>
+      </c>
+      <c r="E45" s="13">
+        <v>17</v>
+      </c>
+      <c r="F45" s="13">
+        <v>550</v>
+      </c>
+      <c r="G45" s="13">
+        <v>25</v>
+      </c>
+      <c r="H45" s="13">
+        <v>550</v>
+      </c>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K45" s="13">
+        <v>1</v>
+      </c>
+      <c r="L45" s="13">
+        <v>400</v>
+      </c>
+      <c r="M45" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C46" s="13">
+        <v>280</v>
+      </c>
+      <c r="D46" s="13">
+        <v>380</v>
+      </c>
+      <c r="E46" s="13">
+        <v>17</v>
+      </c>
+      <c r="F46" s="13">
+        <v>550</v>
+      </c>
+      <c r="G46" s="13">
+        <v>25</v>
+      </c>
+      <c r="H46" s="13">
+        <v>550</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K46" s="13">
+        <v>1</v>
+      </c>
+      <c r="L46" s="13">
+        <v>400</v>
+      </c>
+      <c r="M46" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C47" s="13">
+        <v>280</v>
+      </c>
+      <c r="D47" s="13">
+        <v>380</v>
+      </c>
+      <c r="E47" s="13">
+        <v>17</v>
+      </c>
+      <c r="F47" s="13">
+        <v>550</v>
+      </c>
+      <c r="G47" s="13">
+        <v>25</v>
+      </c>
+      <c r="H47" s="13">
+        <v>550</v>
+      </c>
+      <c r="I47" s="13">
+        <v>17</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="13">
+        <v>1</v>
+      </c>
+      <c r="L47" s="13">
+        <v>400</v>
+      </c>
+      <c r="M47" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" s="13">
+        <v>280</v>
+      </c>
+      <c r="D48" s="13">
+        <v>380</v>
+      </c>
+      <c r="E48" s="13">
+        <v>17</v>
+      </c>
+      <c r="F48" s="13">
+        <v>550</v>
+      </c>
+      <c r="G48" s="13">
+        <v>25</v>
+      </c>
+      <c r="H48" s="13">
+        <v>550</v>
+      </c>
+      <c r="I48" s="13">
+        <v>17</v>
+      </c>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13">
+        <v>1</v>
+      </c>
+      <c r="L48" s="13">
+        <v>400</v>
+      </c>
+      <c r="M48" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C49" s="13">
+        <v>280</v>
+      </c>
+      <c r="D49" s="13">
+        <v>380</v>
+      </c>
+      <c r="E49" s="13">
+        <v>17</v>
+      </c>
+      <c r="F49" s="13">
+        <v>550</v>
+      </c>
+      <c r="G49" s="13">
+        <v>25</v>
+      </c>
+      <c r="H49" s="13">
+        <v>550</v>
+      </c>
+      <c r="I49" s="13">
+        <v>17</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="K49" s="13">
+        <v>1</v>
+      </c>
+      <c r="L49" s="13">
+        <v>400</v>
+      </c>
+      <c r="M49" s="13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50" s="13">
+        <v>280</v>
+      </c>
+      <c r="D50" s="13">
+        <v>380</v>
+      </c>
+      <c r="E50" s="13">
+        <v>17</v>
+      </c>
+      <c r="F50" s="13">
+        <v>550</v>
+      </c>
+      <c r="G50" s="13">
+        <v>25</v>
+      </c>
+      <c r="H50" s="13">
+        <v>550</v>
+      </c>
+      <c r="I50" s="13">
+        <v>17</v>
+      </c>
+      <c r="J50" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="K50" s="13">
+        <v>1</v>
+      </c>
+      <c r="L50" s="13">
+        <v>400</v>
+      </c>
+      <c r="M50" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C51" s="13">
+        <v>280</v>
+      </c>
+      <c r="D51" s="13">
+        <v>380</v>
+      </c>
+      <c r="E51" s="13">
+        <v>17</v>
+      </c>
+      <c r="F51" s="13">
+        <v>550</v>
+      </c>
+      <c r="G51" s="13">
+        <v>25</v>
+      </c>
+      <c r="H51" s="13">
+        <v>550</v>
+      </c>
+      <c r="I51" s="13">
+        <v>17</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K51" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="L51" s="13">
+        <v>400</v>
+      </c>
+      <c r="M51" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C52" s="13">
+        <v>280</v>
+      </c>
+      <c r="D52" s="13">
+        <v>380</v>
+      </c>
+      <c r="E52" s="13">
+        <v>17</v>
+      </c>
+      <c r="F52" s="13">
+        <v>550</v>
+      </c>
+      <c r="G52" s="13">
+        <v>25</v>
+      </c>
+      <c r="H52" s="13">
+        <v>550</v>
+      </c>
+      <c r="I52" s="13">
+        <v>17</v>
+      </c>
+      <c r="J52" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13">
+        <v>400</v>
+      </c>
+      <c r="M52" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C53" s="13">
+        <v>280</v>
+      </c>
+      <c r="D53" s="13">
+        <v>380</v>
+      </c>
+      <c r="E53" s="13">
+        <v>17</v>
+      </c>
+      <c r="F53" s="13">
+        <v>550</v>
+      </c>
+      <c r="G53" s="13">
+        <v>25</v>
+      </c>
+      <c r="H53" s="13">
+        <v>550</v>
+      </c>
+      <c r="I53" s="13">
+        <v>17</v>
+      </c>
+      <c r="J53" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K53" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L53" s="13">
+        <v>400</v>
+      </c>
+      <c r="M53" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C54" s="13">
+        <v>280</v>
+      </c>
+      <c r="D54" s="13">
+        <v>380</v>
+      </c>
+      <c r="E54" s="13">
+        <v>17</v>
+      </c>
+      <c r="F54" s="13">
+        <v>550</v>
+      </c>
+      <c r="G54" s="13">
+        <v>25</v>
+      </c>
+      <c r="H54" s="13">
+        <v>550</v>
+      </c>
+      <c r="I54" s="13">
+        <v>17</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K54" s="13">
+        <v>-1</v>
+      </c>
+      <c r="L54" s="13">
+        <v>400</v>
+      </c>
+      <c r="M54" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C55" s="13">
+        <v>280</v>
+      </c>
+      <c r="D55" s="13">
+        <v>380</v>
+      </c>
+      <c r="E55" s="13">
+        <v>17</v>
+      </c>
+      <c r="F55" s="13">
+        <v>550</v>
+      </c>
+      <c r="G55" s="13">
+        <v>25</v>
+      </c>
+      <c r="H55" s="13">
+        <v>550</v>
+      </c>
+      <c r="I55" s="13">
+        <v>17</v>
+      </c>
+      <c r="J55" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K55" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="L55" s="13">
+        <v>400</v>
+      </c>
+      <c r="M55" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3598,7 +7849,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4018,7 +8269,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4290,15 +8541,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77611768-73AC-4451-8C4F-AA2E611DFBB9}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="76.21875" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
     <col min="2" max="2" width="18.109375" customWidth="1"/>
     <col min="3" max="3" width="16.77734375" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
@@ -4386,6 +8635,9 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>248</v>
+      </c>
       <c r="B7">
         <v>1</v>
       </c>
@@ -4393,10 +8645,13 @@
         <v>400</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>249</v>
+      </c>
       <c r="B8">
         <v>1</v>
       </c>
@@ -4404,10 +8659,13 @@
         <v>400</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>247</v>
+      </c>
       <c r="B9">
         <v>1</v>
       </c>
@@ -4415,10 +8673,13 @@
         <v>400</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>246</v>
+      </c>
       <c r="B10">
         <v>1</v>
       </c>
@@ -4426,18 +8687,21 @@
         <v>400</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>120</v>
+      </c>
       <c r="B11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C11">
         <v>400</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>32</v>
+      <c r="D11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -4445,13 +8709,13 @@
         <v>120</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>400</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -4459,63 +8723,63 @@
         <v>120</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>400</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>120</v>
       </c>
-      <c r="B14">
-        <v>5</v>
+      <c r="B14" t="s">
+        <v>3</v>
       </c>
       <c r="C14">
         <v>400</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>120</v>
       </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
       <c r="C15">
         <v>400</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>120</v>
       </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C16">
         <v>400</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>120</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
+      <c r="B17" t="s">
+        <v>6</v>
       </c>
       <c r="C17">
         <v>400</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -4523,26 +8787,12 @@
         <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <v>400</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>400</v>
-      </c>
-      <c r="D19" t="s">
         <v>59</v>
       </c>
     </row>
